--- a/strings_translsations_extractor/text.xlsx
+++ b/strings_translsations_extractor/text.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$2:$B$68</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="251">
   <si>
     <t>app_name</t>
   </si>
@@ -116,9 +116,6 @@
     <t>register_fail</t>
   </si>
   <si>
-    <t xml:space="preserve"> then try again.</t>
-  </si>
-  <si>
     <t>link_prompt</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>ip_address_v4_seperator</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>contextmenu_delete</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>Rate on Google Play</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>unlock_pro_prompt</t>
   </si>
   <si>
@@ -248,54 +239,6 @@
     <t>unlock_pro_descriptor</t>
   </si>
   <si>
-    <t>bulbs_discovered_desciptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbs Discovered: </t>
-  </si>
-  <si>
-    <t>bulbs_unlocked_desciptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbs Unlocked: </t>
-  </si>
-  <si>
-    <t>unlock_more_bulbs_prompt</t>
-  </si>
-  <si>
-    <t>Unlock more bulbs</t>
-  </si>
-  <si>
-    <t>unlocks_exclusive_or_seperator</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>buy_me_a_bulb</t>
-  </si>
-  <si>
-    <t>Donate the cost of a bulb</t>
-  </si>
-  <si>
-    <t>donation_prompt</t>
-  </si>
-  <si>
-    <t>Donating will help me work on HueMore. Thanks! -Eric</t>
-  </si>
-  <si>
-    <t>group_selection_prompt</t>
-  </si>
-  <si>
-    <t>Pick a group</t>
-  </si>
-  <si>
-    <t>mood_selection_prompt</t>
-  </si>
-  <si>
-    <t>Pick a mood</t>
-  </si>
-  <si>
     <t>nfc</t>
   </si>
   <si>
@@ -329,15 +272,6 @@
     <t>ALARMS</t>
   </si>
   <si>
-    <t>delay_prompt</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t>Could not connect to bridge. Please make sure this device is connected to the same wifi as the hub and has internet access</t>
-  </si>
-  <si>
     <t>actionmenu_new_alarm</t>
   </si>
   <si>
@@ -368,9 +302,6 @@
     <t>nfc_disabled</t>
   </si>
   <si>
-    <t>NFC is not enabled. Turn it on in your device settings</t>
-  </si>
-  <si>
     <t>nfc_read_done</t>
   </si>
   <si>
@@ -434,9 +365,6 @@
     <t>actionmenue_new_alarm</t>
   </si>
   <si>
-    <t>Pro version unlocks Alarms and NFC. More features added weekly.</t>
-  </si>
-  <si>
     <t>NFC is not enabled. Turn it on in your device settings.</t>
   </si>
   <si>
@@ -507,6 +435,357 @@
   </si>
   <si>
     <t>Pro version enables Alarms and NFC features.</t>
+  </si>
+  <si>
+    <t>Codename</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Instellingen</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Registeren bij Hub</t>
+  </si>
+  <si>
+    <t>Registriere mit Bridge</t>
+  </si>
+  <si>
+    <t>Ontgrendelen</t>
+  </si>
+  <si>
+    <t>Entsperren</t>
+  </si>
+  <si>
+    <t>SFEREN</t>
+  </si>
+  <si>
+    <t>SZENEN</t>
+  </si>
+  <si>
+    <t>MANUEEL</t>
+  </si>
+  <si>
+    <t>MANUELL</t>
+  </si>
+  <si>
+    <t>GROEPEN</t>
+  </si>
+  <si>
+    <t>GRUPPEN</t>
+  </si>
+  <si>
+    <t>LAMPEN</t>
+  </si>
+  <si>
+    <t>Groepen</t>
+  </si>
+  <si>
+    <t>Gruppen</t>
+  </si>
+  <si>
+    <t>Sferen</t>
+  </si>
+  <si>
+    <t>Szenen</t>
+  </si>
+  <si>
+    <t>Szene:</t>
+  </si>
+  <si>
+    <t>Gruppe:</t>
+  </si>
+  <si>
+    <t>Okee</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Annuleren</t>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+  </si>
+  <si>
+    <t>Verbinden succesvol</t>
+  </si>
+  <si>
+    <t>Verbindung erfolgreich</t>
+  </si>
+  <si>
+    <t>Kan geen verbinding maken met hub. Zorg er voor dat het aparaat is aangesloten op de zelfde wifi als de hub en toegang heeft tot internet. Probeer het daarna nogmaals.</t>
+  </si>
+  <si>
+    <t>Konnte nicht mit der Bridge verbunden werden. Stelle sicher dass dieses Gerät mit demselben WiFi verbunden ist wie die Bridge und Internetzugriff hat. Versuche es dann noch einmal.</t>
+  </si>
+  <si>
+    <t>Druk op de link knop van de hub</t>
+  </si>
+  <si>
+    <t>Drücke die Link Taste auf der Bridge.</t>
+  </si>
+  <si>
+    <t>Voer het IP adres van de hub in</t>
+  </si>
+  <si>
+    <t>Gebe die Bridge IP Adresse ein</t>
+  </si>
+  <si>
+    <t>Geavanceerd</t>
+  </si>
+  <si>
+    <t>Fortgeschritten</t>
+  </si>
+  <si>
+    <t>Automatisch Verbinden</t>
+  </si>
+  <si>
+    <t>Automatisch verbinden</t>
+  </si>
+  <si>
+    <t>Verwijderen</t>
+  </si>
+  <si>
+    <t>Löschen</t>
+  </si>
+  <si>
+    <t>Wijzigen</t>
+  </si>
+  <si>
+    <t>Ändern</t>
+  </si>
+  <si>
+    <t>Nieuwe Groep</t>
+  </si>
+  <si>
+    <t>Neue Gruppe</t>
+  </si>
+  <si>
+    <t>Nieuwe sfeer</t>
+  </si>
+  <si>
+    <t>Neue Szene</t>
+  </si>
+  <si>
+    <t>Neuer Alarm</t>
+  </si>
+  <si>
+    <t>sfeer naam</t>
+  </si>
+  <si>
+    <t>Szenenname</t>
+  </si>
+  <si>
+    <t>groepnaam</t>
+  </si>
+  <si>
+    <t>Gruppenname</t>
+  </si>
+  <si>
+    <t>Helderheid</t>
+  </si>
+  <si>
+    <t>Helligkeit</t>
+  </si>
+  <si>
+    <t>Kleurverzadiging</t>
+  </si>
+  <si>
+    <t>Sättigung</t>
+  </si>
+  <si>
+    <t>Kleurtemperatuur (K)</t>
+  </si>
+  <si>
+    <t>Farbtemperatur (K)</t>
+  </si>
+  <si>
+    <t>Toevoegen kleur</t>
+  </si>
+  <si>
+    <t>Farbe hinzufügen</t>
+  </si>
+  <si>
+    <t>Roteer kleuren:</t>
+  </si>
+  <si>
+    <t>Farbschlaufe:</t>
+  </si>
+  <si>
+    <t>Standaard startscherm</t>
+  </si>
+  <si>
+    <t>Standard Startmenü</t>
+  </si>
+  <si>
+    <t>Tweede startscherm</t>
+  </si>
+  <si>
+    <t>Standard Einstellungsmenü</t>
+  </si>
+  <si>
+    <t>Waarderen op Google Play</t>
+  </si>
+  <si>
+    <t>Bewerten in Google Play</t>
+  </si>
+  <si>
+    <t>Ontgrendel de Pro Versie!</t>
+  </si>
+  <si>
+    <t>Pro Version freischalten!</t>
+  </si>
+  <si>
+    <t>Du hast bereits die Pro Version!</t>
+  </si>
+  <si>
+    <t>De pro versie voegt Alarmen, NFC, en Timers toe. Meer functionaliteit wordt wekelijks toegevoegd.</t>
+  </si>
+  <si>
+    <t>Die Pro Version schaltet Alarme und NFC Funktionalitäten frei.</t>
+  </si>
+  <si>
+    <t>Tag erkannt</t>
+  </si>
+  <si>
+    <t>Tag nicht gefunden</t>
+  </si>
+  <si>
+    <t>Auf Tag schreiben</t>
+  </si>
+  <si>
+    <t>Opslaan van Tag</t>
+  </si>
+  <si>
+    <t>Auf Tag gespeichert</t>
+  </si>
+  <si>
+    <t>Opslaan van Tag Mislukt</t>
+  </si>
+  <si>
+    <t>Speicherung auf Tag fehlgeschlagen</t>
+  </si>
+  <si>
+    <t>NFC ist nicht eingeschalten. Aktiviere es in den Geräteeinstellungen.</t>
+  </si>
+  <si>
+    <t>Fertig</t>
+  </si>
+  <si>
+    <t>NFC Tag gelesen</t>
+  </si>
+  <si>
+    <t>Alarmen</t>
+  </si>
+  <si>
+    <t>Alarme</t>
+  </si>
+  <si>
+    <t>ALARMEN</t>
+  </si>
+  <si>
+    <t>ALARME</t>
+  </si>
+  <si>
+    <t>Einblenden:</t>
+  </si>
+  <si>
+    <t>Wiederholen:</t>
+  </si>
+  <si>
+    <t>TÄGLICH</t>
+  </si>
+  <si>
+    <t>Nächster Alarm</t>
+  </si>
+  <si>
+    <t>Nicht</t>
+  </si>
+  <si>
+    <t>1 Sekunde</t>
+  </si>
+  <si>
+    <t>10 Sekunden</t>
+  </si>
+  <si>
+    <t>10 Minuten</t>
+  </si>
+  <si>
+    <t>Dimanche</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samedi</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -568,8 +847,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,500 +1155,1270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C68"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="399.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1453,18 +2502,18 @@
     </row>
     <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,250 +2545,250 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -1749,270 +2798,213 @@
     </row>
     <row r="48" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/strings_translsations_extractor/text.xlsx
+++ b/strings_translsations_extractor/text.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$2:$B$68</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="251">
   <si>
     <t>app_name</t>
   </si>
@@ -1157,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C74"/>
+    <sheetView topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B73"/>
     </sheetView>
   </sheetViews>
@@ -3007,4 +3008,607 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>